--- a/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7801" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="879">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3946,6 +3946,14 @@
   <si>
     <t>;Check that system will discover devices based on its configured search parameters such as IP address range, Request port and Community string.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4121,7 +4129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4173,6 +4181,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4908,7 +4920,7 @@
   <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5589,6 +5601,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>878</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
@@ -3916,10 +3916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert GXT UPS/WebCard"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3953,6 +3949,10 @@
   </si>
   <si>
     <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5528,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>877</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>878</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
@@ -5840,7 +5840,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>577</v>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6452,7 +6452,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>577</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -6712,7 +6712,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6835,7 +6835,7 @@
         <v>166</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -6850,7 +6850,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>756</v>
@@ -6881,7 +6881,7 @@
         <v>166</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -6896,7 +6896,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>756</v>
@@ -6927,7 +6927,7 @@
         <v>166</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -7003,7 +7003,7 @@
         <v>115</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -8016,7 +8016,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>577</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -8056,13 +8056,13 @@
         <v>868</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>866</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>867</v>
@@ -8748,7 +8748,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>577</v>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.40_DiscoveringSupportedDevices.xlsx
@@ -3673,10 +3673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Prerequisites: Log on to NformG2 viewer as an “Administrator” having ‘Discover New Devices’ rights.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to discover the supported device by configuring IP address range, Request port and Community String as search parameters.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3953,6 +3949,10 @@
   </si>
   <si>
     <t>$NAME_SNMP_GXT_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Prerequisites: No license. Log on to NformG2 viewer as an “Administrator” having ‘Discover New Devices’ rights.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5083,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5108,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5133,7 +5133,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5156,7 +5156,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5181,7 +5181,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
@@ -5190,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5212,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>19</v>
@@ -5221,7 +5221,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5239,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>396</v>
@@ -5248,7 +5248,7 @@
         <v>401</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -5268,7 +5268,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>396</v>
@@ -5280,10 +5280,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="J12" s="5">
         <v>1000</v>
@@ -5303,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>396</v>
@@ -5315,10 +5315,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="J13" s="5">
         <v>2</v>
@@ -5338,7 +5338,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>396</v>
@@ -5350,7 +5350,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I14" s="5" t="b">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>396</v>
@@ -5383,10 +5383,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="J15" s="5">
         <v>65535</v>
@@ -5406,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>396</v>
@@ -5418,13 +5418,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>814</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -5441,7 +5441,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>396</v>
@@ -5470,7 +5470,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5493,7 +5493,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>577</v>
@@ -5503,13 +5503,13 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -5528,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5551,13 +5551,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>2</v>
@@ -5580,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>19</v>
@@ -5602,19 +5602,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>876</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>877</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>578</v>
@@ -5640,10 +5640,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>174</v>
@@ -5665,7 +5665,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>518</v>
@@ -5690,7 +5690,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>518</v>
@@ -5702,10 +5702,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="J26" s="5" t="b">
         <v>1</v>
@@ -5733,13 +5733,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5752,7 +5752,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>518</v>
@@ -5780,10 +5780,10 @@
         <v>800</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="5"/>
@@ -5821,7 +5821,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5840,7 +5840,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>577</v>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5864,7 +5864,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5882,7 +5882,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5900,7 +5900,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>19</v>
@@ -5909,7 +5909,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5924,7 +5924,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>19</v>
@@ -5933,7 +5933,7 @@
         <v>83</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5948,7 +5948,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>396</v>
@@ -5957,7 +5957,7 @@
         <v>401</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -5972,7 +5972,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>396</v>
@@ -5984,7 +5984,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I38" s="5" t="b">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>396</v>
@@ -6012,10 +6012,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="J39" s="5">
         <v>65535</v>
@@ -6030,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>396</v>
@@ -6042,13 +6042,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>814</v>
-      </c>
       <c r="J40" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6060,7 +6060,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>396</v>
@@ -6072,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -6086,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>396</v>
@@ -6110,7 +6110,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -6128,7 +6128,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>577</v>
@@ -6138,13 +6138,13 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6156,7 +6156,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -6174,13 +6174,13 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>2</v>
@@ -6198,7 +6198,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>19</v>
@@ -6222,10 +6222,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>578</v>
@@ -6250,10 +6250,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>578</v>
@@ -6262,7 +6262,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6276,10 +6276,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>174</v>
@@ -6300,7 +6300,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>518</v>
@@ -6324,7 +6324,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>518</v>
@@ -6336,10 +6336,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="J52" s="5" t="b">
         <v>1</v>
@@ -6366,13 +6366,13 @@
         <v>7</v>
       </c>
       <c r="H53" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -6384,7 +6384,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>518</v>
@@ -6411,10 +6411,10 @@
         <v>800</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>2</v>
@@ -6433,7 +6433,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="5"/>
@@ -6452,7 +6452,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>577</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -6476,7 +6476,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6494,7 +6494,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -6512,7 +6512,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>19</v>
@@ -6521,7 +6521,7 @@
         <v>22</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -6536,7 +6536,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>19</v>
@@ -6545,7 +6545,7 @@
         <v>83</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -6560,7 +6560,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>396</v>
@@ -6569,7 +6569,7 @@
         <v>401</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -6584,7 +6584,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>396</v>
@@ -6596,7 +6596,7 @@
         <v>7</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I63" s="5" t="b">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>396</v>
@@ -6636,7 +6636,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>396</v>
@@ -6662,7 +6662,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>396</v>
@@ -6674,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6688,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>396</v>
@@ -6712,7 +6712,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6730,7 +6730,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>19</v>
@@ -6739,7 +6739,7 @@
         <v>22</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>19</v>
@@ -6763,7 +6763,7 @@
         <v>78</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -6778,10 +6778,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>183</v>
@@ -6802,7 +6802,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>602</v>
@@ -6826,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>602</v>
@@ -6835,7 +6835,7 @@
         <v>166</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -6850,7 +6850,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>756</v>
@@ -6872,7 +6872,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>602</v>
@@ -6881,7 +6881,7 @@
         <v>166</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -6896,7 +6896,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>756</v>
@@ -6918,7 +6918,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>602</v>
@@ -6927,7 +6927,7 @@
         <v>166</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -6942,7 +6942,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>602</v>
@@ -6954,7 +6954,7 @@
         <v>60</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -6968,7 +6968,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>602</v>
@@ -6980,7 +6980,7 @@
         <v>60</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -6994,7 +6994,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>602</v>
@@ -7003,7 +7003,7 @@
         <v>115</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -7021,13 +7021,13 @@
         <v>800</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -7042,7 +7042,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
@@ -7069,7 +7069,7 @@
         <v>22</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -7093,7 +7093,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -7117,7 +7117,7 @@
         <v>401</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -7144,7 +7144,7 @@
         <v>7</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I86" s="5" t="b">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7260,7 +7260,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="5"/>
@@ -7278,7 +7278,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="5"/>
@@ -7299,10 +7299,10 @@
         <v>800</v>
       </c>
       <c r="E93" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>2</v>
@@ -7347,7 +7347,7 @@
         <v>800</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>183</v>
@@ -7371,7 +7371,7 @@
         <v>800</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>605</v>
@@ -7395,7 +7395,7 @@
         <v>800</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>166</v>
@@ -7419,7 +7419,7 @@
         <v>800</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>611</v>
@@ -7447,7 +7447,7 @@
         <v>800</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>612</v>
@@ -7471,7 +7471,7 @@
         <v>800</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>611</v>
@@ -7480,7 +7480,7 @@
         <v>60</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -7497,7 +7497,7 @@
         <v>800</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>611</v>
@@ -7506,7 +7506,7 @@
         <v>60</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -7523,7 +7523,7 @@
         <v>800</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>115</v>
@@ -7547,7 +7547,7 @@
         <v>800</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>99</v>
@@ -7568,7 +7568,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="5"/>
@@ -7586,7 +7586,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7604,7 +7604,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="5"/>
@@ -7622,7 +7622,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>577</v>
@@ -7632,13 +7632,13 @@
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="J107" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -7653,10 +7653,10 @@
         <v>800</v>
       </c>
       <c r="E108" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>800</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>578</v>
@@ -7729,7 +7729,7 @@
         <v>800</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>184</v>
@@ -7777,13 +7777,13 @@
         <v>800</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F113" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>862</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>863</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -7798,7 +7798,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="5"/>
@@ -7819,10 +7819,10 @@
         <v>800</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>2</v>
@@ -7867,7 +7867,7 @@
         <v>800</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>183</v>
@@ -7891,7 +7891,7 @@
         <v>800</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>165</v>
@@ -7900,10 +7900,10 @@
         <v>7</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J118" s="5" t="b">
         <v>0</v>
@@ -7918,10 +7918,10 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>603</v>
@@ -7930,10 +7930,10 @@
         <v>7</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J119" s="5" t="b">
         <v>0</v>
@@ -7951,13 +7951,13 @@
         <v>800</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -7975,7 +7975,7 @@
         <v>800</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>99</v>
@@ -7997,7 +7997,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="5"/>
@@ -8016,7 +8016,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>577</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -8040,7 +8040,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>577</v>
@@ -8050,22 +8050,22 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="K124" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="L124" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="J124" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="K124" s="5" t="s">
+      <c r="M124" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="N124" s="16"/>
     </row>
@@ -8074,7 +8074,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="5"/>
@@ -8092,7 +8092,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="5"/>
@@ -8113,10 +8113,10 @@
         <v>800</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>2</v>
@@ -8161,7 +8161,7 @@
         <v>800</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>183</v>
@@ -8185,7 +8185,7 @@
         <v>800</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>605</v>
@@ -8209,7 +8209,7 @@
         <v>800</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>166</v>
@@ -8233,7 +8233,7 @@
         <v>800</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>611</v>
@@ -8261,7 +8261,7 @@
         <v>800</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>612</v>
@@ -8285,7 +8285,7 @@
         <v>800</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>611</v>
@@ -8310,10 +8310,10 @@
         <v>134</v>
       </c>
       <c r="D135" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>851</v>
       </c>
       <c r="F135" s="5">
         <v>2</v>
@@ -8335,13 +8335,13 @@
         <v>800</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>611</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H136" s="5">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -8365,13 +8365,13 @@
         <v>800</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>611</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H137" s="5">
         <v>1</v>
@@ -8380,7 +8380,7 @@
         <v>2</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -8395,13 +8395,13 @@
         <v>799</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>611</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H138" s="5">
         <v>1</v>
@@ -8410,7 +8410,7 @@
         <v>2</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -8425,13 +8425,13 @@
         <v>800</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -8446,10 +8446,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>851</v>
       </c>
       <c r="F140" s="5">
         <v>60</v>
@@ -8471,13 +8471,13 @@
         <v>800</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -8495,13 +8495,13 @@
         <v>800</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -8519,7 +8519,7 @@
         <v>800</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>167</v>
@@ -8528,10 +8528,10 @@
         <v>7</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J143" s="5" t="b">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>800</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>167</v>
@@ -8573,7 +8573,7 @@
         <v>800</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>618</v>
@@ -8601,19 +8601,19 @@
         <v>800</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G146" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>854</v>
-      </c>
       <c r="I146" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J146" s="5" t="b">
         <v>1</v>
@@ -8631,10 +8631,10 @@
         <v>800</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>2</v>
@@ -8679,7 +8679,7 @@
         <v>800</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>183</v>
@@ -8688,10 +8688,10 @@
         <v>7</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J149" s="5" t="b">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="5"/>
@@ -8748,7 +8748,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>577</v>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -8772,7 +8772,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="5"/>
@@ -8790,7 +8790,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="5"/>
